--- a/biology/Médecine/Hôpital_Pierre-Boucher/Hôpital_Pierre-Boucher.xlsx
+++ b/biology/Médecine/Hôpital_Pierre-Boucher/Hôpital_Pierre-Boucher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Pierre-Boucher</t>
+          <t>Hôpital_Pierre-Boucher</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'hôpital Pierre-Boucher[1] est un centre hospitalier québécois situé à Longueuil[2].
+L'hôpital Pierre-Boucher est un centre hospitalier québécois situé à Longueuil.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Pierre-Boucher</t>
+          <t>Hôpital_Pierre-Boucher</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Inauguré en 1982, il fait partie du Centre de santé et de services sociaux Pierre-Boucher[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inauguré en 1982, il fait partie du Centre de santé et de services sociaux Pierre-Boucher.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Pierre-Boucher</t>
+          <t>Hôpital_Pierre-Boucher</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il offre des soins de santé généraux, spécialisés et ultraspécialisés. Le service des urgences reçoit 55 000 individus annuellement[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il offre des soins de santé généraux, spécialisés et ultraspécialisés. Le service des urgences reçoit 55 000 individus annuellement.
 Pierre-Boucher assiste chaque année à trois mille naissances. Il contient 329 lits. En 2003, le gouvernement québécois y investit 60 M $. L'hôpital effectue des transferts vers l'hôpital Charles-LeMoyne ainsi que vers les centres hospitaliers spécialisés du grand Montréal comme Hôpital Sainte-Justine ou l'Institut de cardiologie de Montréal.
 </t>
         </is>
